--- a/Maharastra/Travelguide.xlsx
+++ b/Maharastra/Travelguide.xlsx
@@ -2161,7 +2161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2368,9 +2368,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7803,8 +7800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8188,7 +8185,7 @@
       <c r="I12" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="24" t="s">
         <v>438</v>
       </c>
       <c r="L12" s="15" t="s">
@@ -8279,7 +8276,7 @@
       <c r="A17" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="45" t="s">
         <v>650</v>
       </c>
       <c r="C17" s="17" t="s">
